--- a/libraries/AP_HAL_ChibiOS/hwdef/DAELAK-rover-H743/pins.xlsx
+++ b/libraries/AP_HAL_ChibiOS/hwdef/DAELAK-rover-H743/pins.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\ardupilot24\home\rrace\ardupilot\libraries\AP_HAL_ChibiOS\hwdef\DAELAK-rover-H743\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rrace001\ardupilot\libraries\AP_HAL_ChibiOS\hwdef\DAELAK-rover-H743\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A3F314-6AC1-4D97-A570-8153E8B0AD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9966DE2-DD99-4EBF-A456-713491877CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22790" yWindow="380" windowWidth="12940" windowHeight="19780" activeTab="1" xr2:uid="{C2F16E42-267B-47BF-8194-8968E7957828}"/>
+    <workbookView xWindow="13660" yWindow="360" windowWidth="21800" windowHeight="20350" activeTab="1" xr2:uid="{C2F16E42-267B-47BF-8194-8968E7957828}"/>
   </bookViews>
   <sheets>
     <sheet name="HEADERS" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="283">
   <si>
     <t>PE1</t>
   </si>
@@ -428,9 +428,6 @@
     <t>DO NOT EDIT</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>*PA11 USB1_DN *</t>
   </si>
   <si>
@@ -506,9 +503,6 @@
     <t>*PD3 DCMI_D5  *</t>
   </si>
   <si>
-    <t>*PD4 MicroSD_SW (switch)*</t>
-  </si>
-  <si>
     <t>*PD6 SPI_Flash_CS   *</t>
   </si>
   <si>
@@ -590,9 +584,6 @@
     <t>PE3 Blue LED</t>
   </si>
   <si>
-    <t>* indicates used by dev board</t>
-  </si>
-  <si>
     <t>*PE10 LCD_LED TIM*</t>
   </si>
   <si>
@@ -614,68 +605,296 @@
     <t>PD9 USART3_RX USART3</t>
   </si>
   <si>
-    <t>PA0 UART4_TX UART4</t>
-  </si>
-  <si>
-    <t>PA1 UART4_RX UART4</t>
-  </si>
-  <si>
     <t>PB10 I2C2_SCL I2C2</t>
   </si>
   <si>
     <t>PB11 I2C2_SDA I2C2</t>
   </si>
   <si>
-    <t>PE9  TIM1_CH1  TIM1  PWM(4)  GPIO(53)</t>
-  </si>
-  <si>
-    <t>PB1  TIM3_CH4  TIM3  PWM(5)  GPIO(54) BIDIR</t>
-  </si>
-  <si>
-    <t>PB0  TIM3_CH3  TIM3  PWM(6)  GPIO(55)</t>
-  </si>
-  <si>
-    <t>PD14 TIM4_CH3  TIM4  PWM(9)  GPIO(58)</t>
-  </si>
-  <si>
-    <t>PD15 TIM4_CH4  TIM4  PWM(10) GPIO(59)</t>
-  </si>
-  <si>
     <t>PA15 TIM2_CH1 TIM2 GPIO(32) ALARM</t>
   </si>
   <si>
-    <t>PA5 SPI1_SCK SPI1</t>
-  </si>
-  <si>
-    <t>PA6 SPI1_MISO SPI1</t>
-  </si>
-  <si>
-    <t>PA7 SPI1_MOSI SPI1</t>
-  </si>
-  <si>
-    <t>PD3 SPI2_SCK  SPI2</t>
-  </si>
-  <si>
     <t>PC2 SPI2_MISO SPI2</t>
   </si>
   <si>
     <t>PC3 SPI2_MOSI SPI2</t>
   </si>
   <si>
-    <t>PA8 SPI1_CS CS</t>
-  </si>
-  <si>
-    <t>used by dev board</t>
-  </si>
-  <si>
-    <t>PE4  DRDY8_RM3100 INPUT</t>
+    <t>PC0 BATT_VOLTAGE_SENS ADC1 SCALE(1)</t>
+  </si>
+  <si>
+    <t>PC1 BATT_CURRENT_SENS ADC1 SCALE(1)</t>
+  </si>
+  <si>
+    <t>PB13 SPI2_SCK  SPI2</t>
+  </si>
+  <si>
+    <t>MPU-9250</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>ECL</t>
+  </si>
+  <si>
+    <t>****ENCODERS'</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>NCS</t>
+  </si>
+  <si>
+    <t>FSYNC</t>
+  </si>
+  <si>
+    <t>SDA/SDI</t>
+  </si>
+  <si>
+    <t>SCL/SCK</t>
+  </si>
+  <si>
+    <t>ADD/SDO</t>
+  </si>
+  <si>
+    <t>ICM20948</t>
+  </si>
+  <si>
+    <t>FSY</t>
+  </si>
+  <si>
+    <t>ACL</t>
+  </si>
+  <si>
+    <t>ADA</t>
+  </si>
+  <si>
+    <t>SCL/SCLK</t>
+  </si>
+  <si>
+    <t>PA4 ICM20948_CS  CS</t>
+  </si>
+  <si>
+    <t>*used by dev board</t>
+  </si>
+  <si>
+    <t>PA5 SPI6_SCK  SPI6</t>
+  </si>
+  <si>
+    <t>PA6 SPI6_MISO SPI6</t>
+  </si>
+  <si>
+    <t>PA7 SPI6_MOSI SPI6</t>
+  </si>
+  <si>
+    <t>PB8 I2C1_SCL I2C1</t>
+  </si>
+  <si>
+    <t>PB9 I2C1_SDA I2C1</t>
+  </si>
+  <si>
+    <t>PA1 USART2_RTS USART2</t>
+  </si>
+  <si>
+    <t>PE8 UART7_TX UART7</t>
+  </si>
+  <si>
+    <t>PE7 UART7_RX UART7</t>
+  </si>
+  <si>
+    <t>PE1 UART8_TX UART8</t>
+  </si>
+  <si>
+    <t>PE0 UART8_RX UART8</t>
+  </si>
+  <si>
+    <t>LEDS</t>
+  </si>
+  <si>
+    <t>BEEPER</t>
+  </si>
+  <si>
+    <t>SIG</t>
+  </si>
+  <si>
+    <t>BOARD</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>RM3100</t>
+  </si>
+  <si>
+    <t>BATTERY</t>
+  </si>
+  <si>
+    <t>VOLT</t>
+  </si>
+  <si>
+    <t>CURR</t>
+  </si>
+  <si>
+    <t>connected to header on dev board but not used</t>
+  </si>
+  <si>
+    <t>*PD4 MicroSD_SW*</t>
+  </si>
+  <si>
+    <t>DRDY</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>AVSS</t>
+  </si>
+  <si>
+    <t>DVSS</t>
+  </si>
+  <si>
+    <t>AVDD</t>
+  </si>
+  <si>
+    <t>DVDD</t>
+  </si>
+  <si>
+    <t>I2CEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC </t>
+  </si>
+  <si>
+    <t>SCK/SCL</t>
+  </si>
+  <si>
+    <t>SO/SA1</t>
+  </si>
+  <si>
+    <t>SI/SDA</t>
+  </si>
+  <si>
+    <t>SSN/SA0</t>
+  </si>
+  <si>
+    <t>PE5 SPI4_MISO SPI4</t>
+  </si>
+  <si>
+    <t>PE4 OPEN_CS SPI4</t>
+  </si>
+  <si>
+    <t>PB7  DRDY1_RM3100 INPUT</t>
+  </si>
+  <si>
+    <t>PC4 MPU9250_CS  CS</t>
+  </si>
+  <si>
+    <t>PC5  DRDY2_MPU9250 INPUT</t>
+  </si>
+  <si>
+    <t>PC13 DRDY3_ICM20948 INPUT</t>
+  </si>
+  <si>
+    <t>COIN CELL</t>
+  </si>
+  <si>
+    <t>PD0 UART4_RX UART4</t>
+  </si>
+  <si>
+    <t>PD1 UART4_TX UART4</t>
+  </si>
+  <si>
+    <t>PD3 USART2_CTS USART2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA0 TIM5_CH1 TIM5 PWM(1) GPIO(50) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB1 TIM1_CH3N TIM1 PWM(4) GPIO(53) </t>
+  </si>
+  <si>
+    <t>SAFTEY SWITCH MONITOR</t>
+  </si>
+  <si>
+    <t>GPS PPS INPUT</t>
+  </si>
+  <si>
+    <t>ENCODER</t>
+  </si>
+  <si>
+    <t>BUMPER</t>
+  </si>
+  <si>
+    <t>COPROCESSOR</t>
+  </si>
+  <si>
+    <t>IOMCU</t>
+  </si>
+  <si>
+    <t>PB12 LED_RED OUTPUT LOW GPIO(0)</t>
+  </si>
+  <si>
+    <t>PD10 LED_GREEN OUTPUT LOW GPIO(1)</t>
+  </si>
+  <si>
+    <t>PD5 LED_BLUE  OUTPUT LOW GPIO(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA8 TIM1_CH1 TIM1 PWM(2) GPIO(51) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB0 TIM3_CH3 TIM3 PWM(3) GPIO(52) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB5 TIM3_CH2 TIM3 PWM(5) GPIO(54)   </t>
+  </si>
+  <si>
+    <t>PB14 TIM1_CH2N TIM1 PWM(6) GPIO(55)</t>
+  </si>
+  <si>
+    <t>PB15 TIM8_CH3N TIM8 PWM(7) GPIO(56)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC6 TIM8_CH1 TIM8 PWM(8)  GPIO(57) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC7 TIM8_CH2 TIM8 PWM(9) GPIO(58) </t>
+  </si>
+  <si>
+    <t>PD14 TIM4_CH3 TIM4 PWM(10) GPIO(59)</t>
+  </si>
+  <si>
+    <t>PD15 TIM4_CH4 TIM4 PWM(11) GPIO(60)</t>
+  </si>
+  <si>
+    <t>PE6 TIM15_CH2 TIM15 PWM(12) GPIO(61)</t>
+  </si>
+  <si>
+    <t>PE15 IN1 INPUT</t>
+  </si>
+  <si>
+    <t>PE9 IN2 INPUT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,8 +925,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.79998168889431442"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -728,21 +962,173 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -751,41 +1137,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -799,6 +1192,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>168795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>302786</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>181819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11990FE0-E787-217D-C7C6-8A6B7C81BCDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6642100" y="2194445"/>
+          <a:ext cx="6093986" cy="4432624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1208,697 +1650,1269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5394023A-3D1D-4F00-B59B-68A0BAB47D6D}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="B1:M56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
     <col min="2" max="2" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.26953125" customWidth="1"/>
+    <col min="12" max="12" width="5.54296875" customWidth="1"/>
+    <col min="13" max="20" width="7.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="J2" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M2" s="35"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="J3" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="J4" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="J5" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="J6" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B7" s="27" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="C7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B9" s="13" t="str">
+        <f>VLOOKUP(C9,GPIO!$B$2:$C$77,2)</f>
+        <v>PE0 UART8_RX UART8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="16" t="str">
+        <f>VLOOKUP(D9,GPIO!$B$2:$C$77,2)</f>
+        <v>PE1 UART8_TX UART8</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B10" s="13" t="str">
+        <f>VLOOKUP(C10,GPIO!$B$2:$C$77,2)</f>
+        <v>PB9 I2C1_SDA I2C1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="16" t="str">
+        <f>VLOOKUP(D10,GPIO!$B$2:$C$77,2)</f>
+        <v>PB8 I2C1_SCL I2C1</v>
+      </c>
+      <c r="G10" s="13">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B11" s="13" t="str">
+        <f>VLOOKUP(C11,GPIO!$B$2:$C$77,2)</f>
+        <v>PB7  DRDY1_RM3100 INPUT</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="32" t="str">
+        <f>VLOOKUP(D11,GPIO!$B$2:$C$77,2)</f>
+        <v>*PB6 QSPI_BK1_NCS *</v>
+      </c>
+      <c r="G11" s="13">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>211</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="16" t="str">
+        <f>VLOOKUP(I11,GPIO!$B$2:$C$77,2)</f>
+        <v>PB13 SPI2_SCK  SPI2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B12" s="13" t="str">
+        <f>VLOOKUP(C12,GPIO!$B$2:$C$77,2)</f>
+        <v xml:space="preserve">PB5 TIM3_CH2 TIM3 PWM(5) GPIO(54)   </v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="32" t="str">
+        <f>VLOOKUP(D12,GPIO!$B$2:$C$77,2)</f>
+        <v>*PB4 SPI_Flash_MISO *</v>
+      </c>
+      <c r="G12" s="13">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="16" t="str">
+        <f>VLOOKUP(I12,GPIO!$B$2:$C$77,2)</f>
+        <v>PC2 SPI2_MISO SPI2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B13" s="30" t="str">
+        <f>VLOOKUP(C13,GPIO!$B$2:$C$77,2)</f>
+        <v>*PB3 SPI_Flash_CLK  *</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="32" t="str">
+        <f>VLOOKUP(D13,GPIO!$B$2:$C$77,2)</f>
+        <v>*PD7 SPI_Flash_MOSI *</v>
+      </c>
+      <c r="G13" s="13">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>202</v>
+      </c>
+      <c r="I13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="16" t="str">
+        <f>VLOOKUP(I13,GPIO!$B$2:$C$77,2)</f>
+        <v>PA4 ICM20948_CS  CS</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B14" s="30" t="str">
+        <f>VLOOKUP(C14,GPIO!$B$2:$C$77,2)</f>
+        <v>*PD6 SPI_Flash_CS   *</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="16" t="str">
+        <f>VLOOKUP(D14,GPIO!$B$2:$C$77,2)</f>
+        <v>PD5 LED_BLUE  OUTPUT LOW GPIO(2)</v>
+      </c>
+      <c r="G14" s="13">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="16" t="str">
+        <f>VLOOKUP(I14,GPIO!$B$2:$C$77,2)</f>
+        <v>PC3 SPI2_MOSI SPI2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B15" s="30" t="str">
+        <f>VLOOKUP(C15,GPIO!$B$2:$C$77,2)</f>
+        <v>*PD4 MicroSD_SW*</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="16" t="str">
+        <f>VLOOKUP(D15,GPIO!$B$2:$C$77,2)</f>
+        <v>PD3 USART2_CTS USART2</v>
+      </c>
+      <c r="G15" s="13">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>201</v>
+      </c>
+      <c r="I15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="16" t="str">
+        <f>VLOOKUP(I15,GPIO!$B$2:$C$77,2)</f>
+        <v>PC13 DRDY3_ICM20948 INPUT</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B16" s="30" t="str">
+        <f>VLOOKUP(C16,GPIO!$B$2:$C$77,2)</f>
+        <v>*PD2 SDMMC1_CMD*</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="16" t="str">
+        <f>VLOOKUP(D16,GPIO!$B$2:$C$77,2)</f>
+        <v>PD1 UART4_TX UART4</v>
+      </c>
+      <c r="G16" s="13">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
         <v>208</v>
       </c>
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C4" s="3" t="s">
+      <c r="I16" t="s">
+        <v>239</v>
+      </c>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="13" t="str">
+        <f>VLOOKUP(C17,GPIO!$B$2:$C$77,2)</f>
+        <v>PD0 UART4_RX UART4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="32" t="str">
+        <f>VLOOKUP(D17,GPIO!$B$2:$C$77,2)</f>
+        <v>*PC12 SDMMC1_CK  *</v>
+      </c>
+      <c r="G17" s="13">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I17" t="s">
+        <v>239</v>
+      </c>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="30" t="str">
+        <f>VLOOKUP(C18,GPIO!$B$2:$C$77,2)</f>
+        <v>*PC11 SDMMC1_D3 *</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="32" t="str">
+        <f>VLOOKUP(D18,GPIO!$B$2:$C$77,2)</f>
+        <v>*PC10 SDMMC1_D2*</v>
+      </c>
+      <c r="G18" s="17">
+        <v>10</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="13" t="str">
+        <f>VLOOKUP(C19,GPIO!$B$2:$C$77,2)</f>
+        <v>PA15 TIM2_CH1 TIM2 GPIO(32) ALARM</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="32" t="str">
+        <f>VLOOKUP(D19,GPIO!$B$2:$C$77,2)</f>
+        <v>*PA12 USB1_DP *</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="30" t="str">
+        <f>VLOOKUP(C20,GPIO!$B$2:$C$77,2)</f>
+        <v>*PA11 USB1_DN *</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="16" t="str">
+        <f>VLOOKUP(D20,GPIO!$B$2:$C$77,2)</f>
+        <v>PA10 USART1_RX USART1</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="13" t="str">
+        <f>VLOOKUP(C21,GPIO!$B$2:$C$77,2)</f>
+        <v>PA9  USART1_TX USART1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="16" t="str">
+        <f>VLOOKUP(D21,GPIO!$B$2:$C$77,2)</f>
+        <v xml:space="preserve">PA8 TIM1_CH1 TIM1 PWM(2) GPIO(51) </v>
+      </c>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>197</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="30" t="str">
+        <f>VLOOKUP(C22,GPIO!$B$2:$C$77,2)</f>
+        <v>*PC9 SDMMC1_D1*</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="32" t="str">
+        <f>VLOOKUP(D22,GPIO!$B$2:$C$77,2)</f>
+        <v>*PC8 SDMMC1_D0*</v>
+      </c>
+      <c r="G22" s="13">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="I22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="13" t="str">
+        <f>VLOOKUP(C23,GPIO!$B$2:$C$77,2)</f>
+        <v xml:space="preserve">PC7 TIM8_CH2 TIM8 PWM(9) GPIO(58) </v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="16" t="str">
+        <f>VLOOKUP(D23,GPIO!$B$2:$C$77,2)</f>
+        <v xml:space="preserve">PC6 TIM8_CH1 TIM8 PWM(8)  GPIO(57) </v>
+      </c>
+      <c r="G23" s="13">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>205</v>
+      </c>
+      <c r="I23" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="16" t="str">
+        <f>VLOOKUP(I23,GPIO!$B$2:$C$77,2)</f>
+        <v>PA5 SPI6_SCK  SPI6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="13" t="str">
+        <f>VLOOKUP(C24,GPIO!$B$2:$C$77,2)</f>
+        <v>PD15 TIM4_CH4 TIM4 PWM(11) GPIO(60)</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="16" t="str">
+        <f>VLOOKUP(D24,GPIO!$B$2:$C$77,2)</f>
+        <v>PD14 TIM4_CH3 TIM4 PWM(10) GPIO(59)</v>
+      </c>
+      <c r="G24" s="13">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>204</v>
+      </c>
+      <c r="I24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="16" t="str">
+        <f>VLOOKUP(I24,GPIO!$B$2:$C$77,2)</f>
+        <v>PA7 SPI6_MOSI SPI6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="30" t="str">
+        <f>VLOOKUP(C25,GPIO!$B$2:$C$77,2)</f>
+        <v>*PD13 QSPI_BK1_IO3 *</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="32" t="str">
+        <f>VLOOKUP(D25,GPIO!$B$2:$C$77,2)</f>
+        <v>*PD12 QSPI_BK1_IO1 *</v>
+      </c>
+      <c r="G25" s="13">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>198</v>
+      </c>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="30" t="str">
+        <f>VLOOKUP(C26,GPIO!$B$2:$C$77,2)</f>
+        <v>*PD11 QSPI_BK1_IO0 *</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="16" t="str">
+        <f>VLOOKUP(D26,GPIO!$B$2:$C$77,2)</f>
+        <v>PD10 LED_GREEN OUTPUT LOW GPIO(1)</v>
+      </c>
+      <c r="G26" s="13">
+        <v>6</v>
+      </c>
+      <c r="H26" t="s">
+        <v>199</v>
+      </c>
+      <c r="I26" t="s">
+        <v>239</v>
+      </c>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="13" t="str">
+        <f>VLOOKUP(C27,GPIO!$B$2:$C$77,2)</f>
+        <v>PD9 USART3_RX USART3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="16" t="str">
+        <f>VLOOKUP(D27,GPIO!$B$2:$C$77,2)</f>
+        <v>PD8 USART3_TX USART3</v>
+      </c>
+      <c r="G27" s="13">
+        <v>7</v>
+      </c>
+      <c r="H27" t="s">
+        <v>206</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="16" t="str">
+        <f>VLOOKUP(I27,GPIO!$B$2:$C$77,2)</f>
+        <v>PA6 SPI6_MISO SPI6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="13" t="str">
+        <f>VLOOKUP(C28,GPIO!$B$2:$C$77,2)</f>
+        <v>PB15 TIM8_CH3N TIM8 PWM(7) GPIO(56)</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="16" t="str">
+        <f>VLOOKUP(D28,GPIO!$B$2:$C$77,2)</f>
+        <v>PB14 TIM1_CH2N TIM1 PWM(6) GPIO(55)</v>
+      </c>
+      <c r="G28" s="13">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>201</v>
+      </c>
+      <c r="I28" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="16" t="str">
+        <f>VLOOKUP(I28,GPIO!$B$2:$C$77,2)</f>
+        <v>PC5  DRDY2_MPU9250 INPUT</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="28" t="str">
+        <f>VLOOKUP(C29,GPIO!$B$2:$C$77,2)</f>
+        <v>PB13 SPI2_SCK  SPI2</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="19" t="str">
+        <f>VLOOKUP(D29,GPIO!$B$2:$C$77,2)</f>
+        <v>PB12 LED_RED OUTPUT LOW GPIO(0)</v>
+      </c>
+      <c r="G29" s="13">
+        <v>9</v>
+      </c>
+      <c r="H29" t="s">
+        <v>202</v>
+      </c>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="16" t="str">
+        <f>VLOOKUP(I29,GPIO!$B$2:$C$77,2)</f>
+        <v>PC4 MPU9250_CS  CS</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G30" s="17">
+        <v>10</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B33" s="30" t="str">
+        <f>VLOOKUP(C33,GPIO!$B$2:$C$77,2)</f>
+        <v>*PE2 QSPI_BK1_IO2 *</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="32" t="str">
+        <f>VLOOKUP(D33,GPIO!$B$2:$C$77,2)</f>
+        <v>*LED BLUE*</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B34" s="13" t="str">
+        <f>VLOOKUP(C34,GPIO!$B$2:$C$77,2)</f>
+        <v>PE4 OPEN_CS SPI4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="16" t="str">
+        <f>VLOOKUP(D34,GPIO!$B$2:$C$77,2)</f>
+        <v>PE5 SPI4_MISO SPI4</v>
+      </c>
+      <c r="G34" s="13">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>246</v>
+      </c>
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="16" t="str">
+        <f>VLOOKUP(I34,GPIO!$B$2:$C$77,2)</f>
+        <v>PB8 I2C1_SCL I2C1</v>
+      </c>
+      <c r="K34">
+        <v>14</v>
+      </c>
+      <c r="L34" t="s">
+        <v>241</v>
+      </c>
+      <c r="M34" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B35" s="13" t="str">
+        <f>VLOOKUP(C35,GPIO!$B$2:$C$77,2)</f>
+        <v>PE6 TIM15_CH2 TIM15 PWM(12) GPIO(61)</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="G35" s="13">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>247</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35">
+        <v>13</v>
+      </c>
+      <c r="L35" t="s">
+        <v>242</v>
+      </c>
+      <c r="M35" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B36" s="13" t="str">
+        <f>VLOOKUP(C36,GPIO!$B$2:$C$77,2)</f>
+        <v>PC13 DRDY3_ICM20948 INPUT</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="G36" s="13">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s">
+        <v>248</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="16" t="str">
+        <f>VLOOKUP(I36,GPIO!$B$2:$C$77,2)</f>
+        <v>PB9 I2C1_SDA I2C1</v>
+      </c>
+      <c r="K36">
+        <v>12</v>
+      </c>
+      <c r="L36" t="s">
+        <v>243</v>
+      </c>
+      <c r="M36" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B37" s="13" t="str">
+        <f>VLOOKUP(C37,GPIO!$B$2:$C$77,2)</f>
+        <v>PC0 BATT_VOLTAGE_SENS ADC1 SCALE(1)</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="16" t="str">
+        <f>VLOOKUP(D37,GPIO!$B$2:$C$77,2)</f>
+        <v>PC1 BATT_CURRENT_SENS ADC1 SCALE(1)</v>
+      </c>
+      <c r="G37" s="13">
+        <v>4</v>
+      </c>
+      <c r="H37" t="s">
+        <v>249</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37">
+        <v>11</v>
+      </c>
+      <c r="L37" t="s">
+        <v>239</v>
+      </c>
+      <c r="M37" s="16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B38" s="29" t="str">
+        <f>VLOOKUP(C38,GPIO!$B$2:$C$77,2)</f>
+        <v>PC2 SPI2_MISO SPI2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="16" t="str">
+        <f>VLOOKUP(D38,GPIO!$B$2:$C$77,2)</f>
+        <v>PC3 SPI2_MOSI SPI2</v>
+      </c>
+      <c r="G38" s="13">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>238</v>
+      </c>
+      <c r="I38" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" s="16" t="str">
+        <f>VLOOKUP(I38,GPIO!$B$2:$C$77,2)</f>
+        <v>PB7  DRDY1_RM3100 INPUT</v>
+      </c>
+      <c r="K38">
+        <v>10</v>
+      </c>
+      <c r="L38" t="s">
+        <v>244</v>
+      </c>
+      <c r="M38" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B39" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="13">
+        <v>6</v>
+      </c>
+      <c r="H39" t="s">
+        <v>239</v>
+      </c>
+      <c r="I39" t="s">
+        <v>239</v>
+      </c>
+      <c r="K39">
+        <v>9</v>
+      </c>
+      <c r="L39" t="s">
+        <v>245</v>
+      </c>
+      <c r="M39" s="16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B40" s="13" t="str">
+        <f>VLOOKUP(C40,GPIO!$B$2:$C$77,2)</f>
+        <v xml:space="preserve">PA0 TIM5_CH1 TIM5 PWM(1) GPIO(50) </v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="16" t="str">
+        <f>VLOOKUP(D40,GPIO!$B$2:$C$77,2)</f>
+        <v>PA1 USART2_RTS USART2</v>
+      </c>
+      <c r="G40" s="17">
+        <v>7</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20">
+        <v>8</v>
+      </c>
+      <c r="L40" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="M40" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B41" s="13" t="str">
+        <f>VLOOKUP(C41,GPIO!$B$2:$C$77,2)</f>
+        <v>PA2 USART2_TX USART2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="16" t="str">
+        <f>VLOOKUP(D41,GPIO!$B$2:$C$77,2)</f>
+        <v>PA3 USART2_RX USART2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B42" s="13" t="str">
+        <f>VLOOKUP(C42,GPIO!$B$2:$C$77,2)</f>
+        <v>PA4 ICM20948_CS  CS</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="16" t="str">
+        <f>VLOOKUP(D42,GPIO!$B$2:$C$77,2)</f>
+        <v>PA5 SPI6_SCK  SPI6</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B43" s="13" t="str">
+        <f>VLOOKUP(C43,GPIO!$B$2:$C$77,2)</f>
+        <v>PA6 SPI6_MISO SPI6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="16" t="str">
+        <f>VLOOKUP(D43,GPIO!$B$2:$C$77,2)</f>
+        <v>PA7 SPI6_MOSI SPI6</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="H43" t="s">
+        <v>228</v>
+      </c>
+      <c r="I43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J43" s="16" t="str">
+        <f>VLOOKUP(I43,GPIO!$B$2:$C$77,2)</f>
+        <v>*LED BLUE*</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B44" s="13" t="str">
+        <f>VLOOKUP(C44,GPIO!$B$2:$C$77,2)</f>
+        <v>PC4 MPU9250_CS  CS</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="16" t="str">
+        <f>VLOOKUP(D44,GPIO!$B$2:$C$77,2)</f>
+        <v>PC5  DRDY2_MPU9250 INPUT</v>
+      </c>
+      <c r="G44" s="13">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>229</v>
+      </c>
+      <c r="I44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44" s="16" t="str">
+        <f>VLOOKUP(I44,GPIO!$B$2:$C$77,2)</f>
+        <v>PB12 LED_RED OUTPUT LOW GPIO(0)</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B45" s="13" t="str">
+        <f>VLOOKUP(C45,GPIO!$B$2:$C$77,2)</f>
+        <v xml:space="preserve">PB0 TIM3_CH3 TIM3 PWM(3) GPIO(52) </v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="16" t="str">
+        <f>VLOOKUP(D45,GPIO!$B$2:$C$77,2)</f>
+        <v xml:space="preserve">PB1 TIM1_CH3N TIM1 PWM(4) GPIO(53) </v>
+      </c>
+      <c r="G45" s="13">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>230</v>
+      </c>
+      <c r="I45" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" s="16" t="str">
+        <f>VLOOKUP(I45,GPIO!$B$2:$C$77,2)</f>
+        <v>PD10 LED_GREEN OUTPUT LOW GPIO(1)</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B46" s="30" t="str">
+        <f>VLOOKUP(C46,GPIO!$B$2:$C$77,2)</f>
+        <v>*PB2 QSPI_CLK     *</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="16" t="str">
+        <f>VLOOKUP(D46,GPIO!$B$2:$C$77,2)</f>
+        <v>PE7 UART7_RX UART7</v>
+      </c>
+      <c r="G46" s="17">
+        <v>3</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" s="16" t="str">
+        <f>VLOOKUP(I46,GPIO!$B$2:$C$77,2)</f>
+        <v>PD5 LED_BLUE  OUTPUT LOW GPIO(2)</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B47" s="13" t="str">
+        <f>VLOOKUP(C47,GPIO!$B$2:$C$77,2)</f>
+        <v>PE8 UART7_TX UART7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="16" t="str">
+        <f>VLOOKUP(D47,GPIO!$B$2:$C$77,2)</f>
+        <v>PE9 IN2 INPUT</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B48" s="30" t="str">
+        <f>VLOOKUP(C48,GPIO!$B$2:$C$77,2)</f>
+        <v>*PE10 LCD_LED TIM*</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="32" t="str">
+        <f>VLOOKUP(D48,GPIO!$B$2:$C$77,2)</f>
+        <v>*PE11 LCD_CS     GPIO*</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="30" t="str">
+        <f>VLOOKUP(C49,GPIO!$B$2:$C$77,2)</f>
+        <v>*PE12 LCD_SCL    SCK*</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="32" t="str">
+        <f>VLOOKUP(D49,GPIO!$B$2:$C$77,2)</f>
+        <v>*PE13 LCD_WR_RS  GPIO*</v>
+      </c>
+      <c r="G49" s="17">
+        <v>1</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="19" t="str">
+        <f>VLOOKUP(I49,GPIO!$B$2:$C$77,2)</f>
+        <v>PA15 TIM2_CH1 TIM2 GPIO(32) ALARM</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="30" t="str">
+        <f>VLOOKUP(C50,GPIO!$B$2:$C$77,2)</f>
+        <v>*PE14 LCD_SDA    MOSI*</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="16" t="str">
+        <f>VLOOKUP(D50,GPIO!$B$2:$C$77,2)</f>
+        <v>PE15 IN1 INPUT</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="13" t="str">
+        <f>VLOOKUP(C51,GPIO!$B$2:$C$77,2)</f>
+        <v>PB10 I2C2_SCL I2C2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="16" t="str">
+        <f>VLOOKUP(D51,GPIO!$B$2:$C$77,2)</f>
+        <v>PB11 I2C2_SDA I2C2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="13"/>
+      <c r="C52" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <f>VLOOKUP(C5,GPIO!$B$2:$C$77,2)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <f>VLOOKUP(D5,GPIO!$B$2:$C$77,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" t="str">
-        <f>VLOOKUP(C6,GPIO!$B$2:$C$77,2)</f>
-        <v>*PB9 I2C1_SDA  *</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="E52" s="16"/>
+      <c r="G52" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="12"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="17"/>
+      <c r="C53" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="19"/>
+      <c r="G53" s="13">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="str">
-        <f>VLOOKUP(D6,GPIO!$B$2:$C$77,2)</f>
-        <v>*PB8 I2C1_SCL  *</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <f>VLOOKUP(C7,GPIO!$B$2:$C$77,2)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="H53" t="s">
+        <v>234</v>
+      </c>
+      <c r="I53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="16" t="str">
+        <f>VLOOKUP(I53,GPIO!$B$2:$C$77,2)</f>
+        <v>PC0 BATT_VOLTAGE_SENS ADC1 SCALE(1)</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G54" s="17">
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5" t="str">
-        <f>VLOOKUP(D7,GPIO!$B$2:$C$77,2)</f>
-        <v>*PB6 QSPI_BK1_NCS *</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" t="str">
-        <f>VLOOKUP(C8,GPIO!$B$2:$C$77,2)</f>
-        <v/>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="5" t="str">
-        <f>VLOOKUP(D8,GPIO!$B$2:$C$77,2)</f>
-        <v>*PB4 SPI_Flash_MISO *</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="str">
-        <f>VLOOKUP(C9,GPIO!$B$2:$C$77,2)</f>
-        <v>*PB3 SPI_Flash_CLK  *</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="5" t="str">
-        <f>VLOOKUP(D9,GPIO!$B$2:$C$77,2)</f>
-        <v>*PD7 SPI_Flash_MOSI *</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="str">
-        <f>VLOOKUP(C10,GPIO!$B$2:$C$77,2)</f>
-        <v>*PD6 SPI_Flash_CS   *</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="str">
-        <f>VLOOKUP(D10,GPIO!$B$2:$C$77,2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="str">
-        <f>VLOOKUP(C11,GPIO!$B$2:$C$77,2)</f>
-        <v>*PD4 MicroSD_SW (switch)*</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="str">
-        <f>VLOOKUP(D11,GPIO!$B$2:$C$77,2)</f>
-        <v>PD3 SPI2_SCK  SPI2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="str">
-        <f>VLOOKUP(C12,GPIO!$B$2:$C$77,2)</f>
-        <v>*PD2 SDMMC1_CMD*</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="str">
-        <f>VLOOKUP(D12,GPIO!$B$2:$C$77,2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" t="str">
-        <f>VLOOKUP(C13,GPIO!$B$2:$C$77,2)</f>
-        <v/>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="5" t="str">
-        <f>VLOOKUP(D13,GPIO!$B$2:$C$77,2)</f>
-        <v>*PC12 SDMMC1_CK  *</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="str">
-        <f>VLOOKUP(C14,GPIO!$B$2:$C$77,2)</f>
-        <v>*PC11 SDMMC1_D3 *</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="5" t="str">
-        <f>VLOOKUP(D14,GPIO!$B$2:$C$77,2)</f>
-        <v>*PC10 SDMMC1_D2*</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B15" t="str">
-        <f>VLOOKUP(C15,GPIO!$B$2:$C$77,2)</f>
-        <v>PA15 TIM2_CH1 TIM2 GPIO(32) ALARM</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="5" t="str">
-        <f>VLOOKUP(D15,GPIO!$B$2:$C$77,2)</f>
-        <v>*PA12 USB1_DP *</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="str">
-        <f>VLOOKUP(C16,GPIO!$B$2:$C$77,2)</f>
-        <v>*PA11 USB1_DN *</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" t="str">
-        <f>VLOOKUP(D16,GPIO!$B$2:$C$77,2)</f>
-        <v>PA10 USART1_RX USART1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" t="str">
-        <f>VLOOKUP(C17,GPIO!$B$2:$C$77,2)</f>
-        <v>PA9  USART1_TX USART1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="str">
-        <f>VLOOKUP(D17,GPIO!$B$2:$C$77,2)</f>
-        <v>PA8 SPI1_CS CS</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="5" t="str">
-        <f>VLOOKUP(C18,GPIO!$B$2:$C$77,2)</f>
-        <v>*PC9 SDMMC1_D1*</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="5" t="str">
-        <f>VLOOKUP(D18,GPIO!$B$2:$C$77,2)</f>
-        <v>*PC8 SDMMC1_D0*</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19">
-        <f>VLOOKUP(C19,GPIO!$B$2:$C$77,2)</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19">
-        <f>VLOOKUP(D19,GPIO!$B$2:$C$77,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" t="str">
-        <f>VLOOKUP(C20,GPIO!$B$2:$C$77,2)</f>
-        <v>PD15 TIM4_CH4  TIM4  PWM(10) GPIO(59)</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" t="str">
-        <f>VLOOKUP(D20,GPIO!$B$2:$C$77,2)</f>
-        <v>PD14 TIM4_CH3  TIM4  PWM(9)  GPIO(58)</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="str">
-        <f>VLOOKUP(C21,GPIO!$B$2:$C$77,2)</f>
-        <v>*PD13 QSPI_BK1_IO3 *</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="5" t="str">
-        <f>VLOOKUP(D21,GPIO!$B$2:$C$77,2)</f>
-        <v>*PD12 QSPI_BK1_IO1 *</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="5" t="str">
-        <f>VLOOKUP(C22,GPIO!$B$2:$C$77,2)</f>
-        <v>*PD11 QSPI_BK1_IO0 *</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" t="str">
-        <f>VLOOKUP(D22,GPIO!$B$2:$C$77,2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" t="str">
-        <f>VLOOKUP(C23,GPIO!$B$2:$C$77,2)</f>
-        <v>PD9 USART3_RX USART3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" t="str">
-        <f>VLOOKUP(D23,GPIO!$B$2:$C$77,2)</f>
-        <v>PD8 USART3_TX USART3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" t="str">
-        <f>VLOOKUP(C24,GPIO!$B$2:$C$77,2)</f>
-        <v/>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" t="str">
-        <f>VLOOKUP(D24,GPIO!$B$2:$C$77,2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" t="str">
-        <f>VLOOKUP(C25,GPIO!$B$2:$C$77,2)</f>
-        <v/>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" t="str">
-        <f>VLOOKUP(D25,GPIO!$B$2:$C$77,2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="5" t="str">
-        <f>VLOOKUP(C29,GPIO!$B$2:$C$77,2)</f>
-        <v>*PE2 QSPI_BK1_IO2 *</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="5" t="str">
-        <f>VLOOKUP(D29,GPIO!$B$2:$C$77,2)</f>
-        <v>*LED BLUE*</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" t="str">
-        <f>VLOOKUP(C30,GPIO!$B$2:$C$77,2)</f>
-        <v>PE4  DRDY8_RM3100 INPUT</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30">
-        <f>VLOOKUP(D30,GPIO!$B$2:$C$77,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B31">
-        <f>VLOOKUP(C31,GPIO!$B$2:$C$77,2)</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B32" t="str">
-        <f>VLOOKUP(C32,GPIO!$B$2:$C$77,2)</f>
-        <v/>
-      </c>
-      <c r="C32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" t="str">
-        <f>VLOOKUP(C33,GPIO!$B$2:$C$77,2)</f>
-        <v/>
-      </c>
-      <c r="C33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="H54" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="I54" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E33" t="str">
-        <f>VLOOKUP(D33,GPIO!$B$2:$C$77,2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" t="str">
-        <f>VLOOKUP(C34,GPIO!$B$2:$C$77,2)</f>
-        <v>PC2 SPI2_MISO SPI2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" t="str">
-        <f>VLOOKUP(D34,GPIO!$B$2:$C$77,2)</f>
-        <v>PC3 SPI2_MOSI SPI2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B36" t="str">
-        <f>VLOOKUP(C36,GPIO!$B$2:$C$77,2)</f>
-        <v>PA0 UART4_TX UART4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" t="str">
-        <f>VLOOKUP(D36,GPIO!$B$2:$C$77,2)</f>
-        <v>PA1 UART4_RX UART4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B37" t="str">
-        <f>VLOOKUP(C37,GPIO!$B$2:$C$77,2)</f>
-        <v>PA2 USART2_TX USART2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" t="str">
-        <f>VLOOKUP(D37,GPIO!$B$2:$C$77,2)</f>
-        <v>PA3 USART2_RX USART2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B38">
-        <f>VLOOKUP(C38,GPIO!$B$2:$C$77,2)</f>
-        <v>0</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" t="str">
-        <f>VLOOKUP(D38,GPIO!$B$2:$C$77,2)</f>
-        <v>PA5 SPI1_SCK SPI1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B39" t="str">
-        <f>VLOOKUP(C39,GPIO!$B$2:$C$77,2)</f>
-        <v>PA6 SPI1_MISO SPI1</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" t="str">
-        <f>VLOOKUP(D39,GPIO!$B$2:$C$77,2)</f>
-        <v>PA7 SPI1_MOSI SPI1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B40" t="str">
-        <f>VLOOKUP(C40,GPIO!$B$2:$C$77,2)</f>
-        <v/>
-      </c>
-      <c r="C40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" t="str">
-        <f>VLOOKUP(D40,GPIO!$B$2:$C$77,2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B41" t="str">
-        <f>VLOOKUP(C41,GPIO!$B$2:$C$77,2)</f>
-        <v>PB0  TIM3_CH3  TIM3  PWM(6)  GPIO(55)</v>
-      </c>
-      <c r="C41" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" t="str">
-        <f>VLOOKUP(D41,GPIO!$B$2:$C$77,2)</f>
-        <v>PB1  TIM3_CH4  TIM3  PWM(5)  GPIO(54) BIDIR</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B42" s="5" t="str">
-        <f>VLOOKUP(C42,GPIO!$B$2:$C$77,2)</f>
-        <v>*PB2 QSPI_CLK     *</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" t="str">
-        <f>VLOOKUP(D42,GPIO!$B$2:$C$77,2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B43" t="str">
-        <f>VLOOKUP(C43,GPIO!$B$2:$C$77,2)</f>
-        <v/>
-      </c>
-      <c r="C43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" t="str">
-        <f>VLOOKUP(D43,GPIO!$B$2:$C$77,2)</f>
-        <v>PE9  TIM1_CH1  TIM1  PWM(4)  GPIO(53)</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B44" s="5" t="str">
-        <f>VLOOKUP(C44,GPIO!$B$2:$C$77,2)</f>
-        <v>*PE10 LCD_LED TIM*</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E44" s="5" t="str">
-        <f>VLOOKUP(D44,GPIO!$B$2:$C$77,2)</f>
-        <v>*PE11 LCD_CS     GPIO*</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B45" s="5" t="str">
-        <f>VLOOKUP(C45,GPIO!$B$2:$C$77,2)</f>
-        <v>*PE12 LCD_SCL    SCK*</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="5" t="str">
-        <f>VLOOKUP(D45,GPIO!$B$2:$C$77,2)</f>
-        <v>*PE13 LCD_WR_RS  GPIO*</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B46" s="5" t="str">
-        <f>VLOOKUP(C46,GPIO!$B$2:$C$77,2)</f>
-        <v>*PE14 LCD_SDA    MOSI*</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" t="str">
-        <f>VLOOKUP(D46,GPIO!$B$2:$C$77,2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B47" t="str">
-        <f>VLOOKUP(C47,GPIO!$B$2:$C$77,2)</f>
-        <v>PB10 I2C2_SCL I2C2</v>
-      </c>
-      <c r="C47" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" t="str">
-        <f>VLOOKUP(D47,GPIO!$B$2:$C$77,2)</f>
-        <v>PB11 I2C2_SDA I2C2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C49" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>44</v>
+      <c r="J54" s="19" t="str">
+        <f>VLOOKUP(I54,GPIO!$B$2:$C$77,2)</f>
+        <v>PC1 BATT_CURRENT_SENS ADC1 SCALE(1)</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G56" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -1908,648 +2922,684 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1C3D65-5460-4DC9-AC59-280C7768C1BA}">
-  <dimension ref="B2:D80"/>
+  <dimension ref="B1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="38.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7265625" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>236</v>
+      </c>
+    </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+      <c r="B2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>191</v>
+      <c r="C2" s="33" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+      <c r="B3" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>192</v>
+      <c r="C3" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>186</v>
+      <c r="C4" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>130</v>
+      <c r="C5" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>131</v>
+      <c r="C6" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>200</v>
+      <c r="C7" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+      <c r="B8" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>187</v>
+      <c r="C8" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
+      <c r="B9" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>188</v>
+      <c r="C9" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+      <c r="B10" s="21" t="s">
         <v>54</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="D10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>207</v>
+      <c r="C14" s="34" t="s">
+        <v>271</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>185</v>
+      <c r="C15" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+      <c r="B16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>197</v>
+      <c r="C16" s="33" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+      <c r="B17" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>196</v>
+      <c r="C17" s="33" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>193</v>
+      <c r="C18" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>194</v>
+      <c r="C19" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>129</v>
+      <c r="C20" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>129</v>
+      <c r="C21" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
+      <c r="B22" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>129</v>
+      <c r="C22" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
+      <c r="B23" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>129</v>
+      <c r="C23" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>136</v>
+      <c r="C24" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>137</v>
+      <c r="C25" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>138</v>
+      <c r="C26" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>129</v>
+      <c r="C27" s="33" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>139</v>
+      <c r="C28" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>2</v>
       </c>
+      <c r="C29" t="s">
+        <v>252</v>
+      </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>141</v>
+      <c r="C30" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>142</v>
+      <c r="C31" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
+      <c r="B32" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>129</v>
+      <c r="C32" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
+      <c r="B33" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>129</v>
+      <c r="C33" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>143</v>
+      <c r="C34" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>144</v>
+      <c r="C35" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>145</v>
+      <c r="C36" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>129</v>
+      <c r="C37" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
+      <c r="B38" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>205</v>
+      <c r="C38" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
+      <c r="B39" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>206</v>
+      <c r="C39" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
+      <c r="B40" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>129</v>
+      <c r="C40" s="22" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
+      <c r="B41" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>129</v>
+      <c r="C41" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>42</v>
       </c>
+      <c r="C42" s="34" t="s">
+        <v>276</v>
+      </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>14</v>
       </c>
+      <c r="C43" s="34" t="s">
+        <v>277</v>
+      </c>
       <c r="D43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>148</v>
+      <c r="C44" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>149</v>
+      <c r="C45" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>129</v>
+      <c r="C46" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>129</v>
+      <c r="C47" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>129</v>
+      <c r="C48" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>150</v>
+      <c r="C49" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>151</v>
+      <c r="C50" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>152</v>
+      <c r="C51" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>198</v>
+      <c r="C52" s="34" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>199</v>
+      <c r="C53" s="34" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>153</v>
+      <c r="C54" s="7" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>204</v>
+      <c r="C55" t="s">
+        <v>259</v>
       </c>
       <c r="D55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>155</v>
+      <c r="C56" s="7" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>129</v>
+      <c r="C57" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>156</v>
+      <c r="C58" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>157</v>
+      <c r="C59" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>189</v>
+      <c r="C60" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>190</v>
+      <c r="C61" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>20</v>
       </c>
+      <c r="C62" t="s">
+        <v>222</v>
+      </c>
       <c r="D62" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>0</v>
       </c>
+      <c r="C63" t="s">
+        <v>223</v>
+      </c>
       <c r="D63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>184</v>
+      <c r="C64" s="9" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>160</v>
+      <c r="C65" s="9" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>161</v>
+      <c r="C66" s="9" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>162</v>
+      <c r="C67" s="9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>163</v>
+      <c r="C68" s="9" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>129</v>
+      <c r="C69" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>48</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>164</v>
+      <c r="C70" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>63</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>165</v>
+      <c r="C71" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>49</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>209</v>
+      <c r="C72" s="26" t="s">
+        <v>251</v>
       </c>
       <c r="D72" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>66</v>
       </c>
+      <c r="C73" s="26" t="s">
+        <v>250</v>
+      </c>
       <c r="D73" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>50</v>
       </c>
+      <c r="C74" s="34" t="s">
+        <v>280</v>
+      </c>
       <c r="D74" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>129</v>
+      <c r="C75" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>129</v>
+      <c r="C76" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>195</v>
+      <c r="C77" s="2" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2558,6 +3608,7 @@
     <sortCondition ref="B2:B77"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2565,7 +3616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C595669-23FC-40DB-86E6-2A7CD38D0EB6}">
   <dimension ref="B2:C80"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -3093,7 +4144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C103D82A-57B8-4459-B7F9-96EBA839BED4}">
   <dimension ref="A2:R95"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
@@ -3417,27 +4468,27 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
@@ -3477,7 +4528,7 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
@@ -3492,7 +4543,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -3507,7 +4558,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -3540,12 +4591,12 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -3580,7 +4631,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
@@ -3605,7 +4656,7 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
@@ -3685,12 +4736,12 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/libraries/AP_HAL_ChibiOS/hwdef/DAELAK-rover-H743/pins.xlsx
+++ b/libraries/AP_HAL_ChibiOS/hwdef/DAELAK-rover-H743/pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rrace001\ardupilot\libraries\AP_HAL_ChibiOS\hwdef\DAELAK-rover-H743\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9966DE2-DD99-4EBF-A456-713491877CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666BBCF9-073F-4D34-9BCD-74D47380D394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13660" yWindow="360" windowWidth="21800" windowHeight="20350" activeTab="1" xr2:uid="{C2F16E42-267B-47BF-8194-8968E7957828}"/>
+    <workbookView xWindow="13660" yWindow="360" windowWidth="21800" windowHeight="20350" activeTab="3" xr2:uid="{C2F16E42-267B-47BF-8194-8968E7957828}"/>
   </bookViews>
   <sheets>
     <sheet name="HEADERS" sheetId="10" r:id="rId1"/>
@@ -1288,23 +1288,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>52100</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>119074</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381364</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76393</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39939E51-A018-6745-92F7-1341AB05BD97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA51351B-3694-07C5-5F4C-3D361FC158DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,8 +1320,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4146550" y="5600700"/>
-          <a:ext cx="9316750" cy="11460174"/>
+          <a:off x="4267200" y="6076950"/>
+          <a:ext cx="7086964" cy="3759393"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2924,7 +2924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1C3D65-5460-4DC9-AC59-280C7768C1BA}">
   <dimension ref="B1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
@@ -4144,8 +4144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C103D82A-57B8-4459-B7F9-96EBA839BED4}">
   <dimension ref="A2:R95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
